--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N2">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O2">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P2">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q2">
-        <v>167394.6726594937</v>
+        <v>172629.7962582406</v>
       </c>
       <c r="R2">
-        <v>167394.6726594937</v>
+        <v>690519.1850329624</v>
       </c>
       <c r="S2">
-        <v>0.1333118541405301</v>
+        <v>0.1320654525558835</v>
       </c>
       <c r="T2">
-        <v>0.1333118541405301</v>
+        <v>0.08169777249560323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P3">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q3">
-        <v>32843.8151187827</v>
+        <v>34436.38917201535</v>
       </c>
       <c r="R3">
-        <v>32843.8151187827</v>
+        <v>206618.3350320921</v>
       </c>
       <c r="S3">
-        <v>0.02615656652013158</v>
+        <v>0.02634456750206376</v>
       </c>
       <c r="T3">
-        <v>0.02615656652013158</v>
+        <v>0.02444574762693436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N4">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O4">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P4">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q4">
-        <v>416.9321343791362</v>
+        <v>426.3774086312127</v>
       </c>
       <c r="R4">
-        <v>416.9321343791362</v>
+        <v>2558.264451787276</v>
       </c>
       <c r="S4">
-        <v>0.0003320416056364804</v>
+        <v>0.0003261877535107037</v>
       </c>
       <c r="T4">
-        <v>0.0003320416056364804</v>
+        <v>0.0003026773356857986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N5">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O5">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P5">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q5">
-        <v>213.0068893732656</v>
+        <v>238.0702158429145</v>
       </c>
       <c r="R5">
-        <v>213.0068893732656</v>
+        <v>1428.421295057487</v>
       </c>
       <c r="S5">
-        <v>0.0001696370793401491</v>
+        <v>0.0001821287603696081</v>
       </c>
       <c r="T5">
-        <v>0.0001696370793401491</v>
+        <v>0.0001690015868073395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N6">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O6">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P6">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q6">
-        <v>110406.8950889874</v>
+        <v>112298.1899981793</v>
       </c>
       <c r="R6">
-        <v>110406.8950889874</v>
+        <v>673789.1399890757</v>
       </c>
       <c r="S6">
-        <v>0.08792721811494961</v>
+        <v>0.08591049520287077</v>
       </c>
       <c r="T6">
-        <v>0.08792721811494961</v>
+        <v>0.07971838156271931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N7">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O7">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P7">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q7">
-        <v>25101.05318840299</v>
+        <v>25138.807549909</v>
       </c>
       <c r="R7">
-        <v>25101.05318840299</v>
+        <v>100555.230199636</v>
       </c>
       <c r="S7">
-        <v>0.01999028934590343</v>
+        <v>0.01923172052423431</v>
       </c>
       <c r="T7">
-        <v>0.01999028934590343</v>
+        <v>0.01189704572755748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N8">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O8">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P8">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q8">
-        <v>50521.96764201208</v>
+        <v>55226.10709444325</v>
       </c>
       <c r="R8">
-        <v>50521.96764201208</v>
+        <v>331356.6425666595</v>
       </c>
       <c r="S8">
-        <v>0.04023531378973377</v>
+        <v>0.04224914229416626</v>
       </c>
       <c r="T8">
-        <v>0.04023531378973377</v>
+        <v>0.0392039789568274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P9">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q9">
-        <v>9912.705932086055</v>
+        <v>11016.56699817175</v>
       </c>
       <c r="R9">
-        <v>9912.705932086055</v>
+        <v>99149.10298354572</v>
       </c>
       <c r="S9">
-        <v>0.007894404202721065</v>
+        <v>0.00842790721973242</v>
       </c>
       <c r="T9">
-        <v>0.007894404202721065</v>
+        <v>0.01173068183225957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N10">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O10">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P10">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q10">
-        <v>125.8357357934898</v>
+        <v>136.4026659481996</v>
       </c>
       <c r="R10">
-        <v>125.8357357934898</v>
+        <v>1227.623993533796</v>
       </c>
       <c r="S10">
-        <v>0.0001002146304254957</v>
+        <v>0.0001043509301333492</v>
       </c>
       <c r="T10">
-        <v>0.0001002146304254957</v>
+        <v>0.0001452445462888629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N11">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O11">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P11">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q11">
-        <v>64.28834921367157</v>
+        <v>76.16119303338634</v>
       </c>
       <c r="R11">
-        <v>64.28834921367157</v>
+        <v>685.450737300477</v>
       </c>
       <c r="S11">
-        <v>5.119875619185294E-05</v>
+        <v>5.826492669958203E-05</v>
       </c>
       <c r="T11">
-        <v>5.119875619185294E-05</v>
+        <v>8.109810647801869E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N12">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O12">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P12">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q12">
-        <v>33322.28853236741</v>
+        <v>35925.38485114234</v>
       </c>
       <c r="R12">
-        <v>33322.28853236741</v>
+        <v>323328.463660281</v>
       </c>
       <c r="S12">
-        <v>0.02653761913613494</v>
+        <v>0.02748368075180365</v>
       </c>
       <c r="T12">
-        <v>0.02653761913613494</v>
+        <v>0.03825413665256761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N13">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O13">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P13">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q13">
-        <v>7575.83605748637</v>
+        <v>8042.171792296262</v>
       </c>
       <c r="R13">
-        <v>7575.83605748637</v>
+        <v>48253.03075377757</v>
       </c>
       <c r="S13">
-        <v>0.006033338668683811</v>
+        <v>0.006152431853032826</v>
       </c>
       <c r="T13">
-        <v>0.006033338668683811</v>
+        <v>0.005708987113163676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N14">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O14">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P14">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q14">
-        <v>122652.6232665878</v>
+        <v>126421.7420681362</v>
       </c>
       <c r="R14">
-        <v>122652.6232665878</v>
+        <v>758530.4524088169</v>
       </c>
       <c r="S14">
-        <v>0.09767962362893871</v>
+        <v>0.09671531184660474</v>
       </c>
       <c r="T14">
-        <v>0.09767962362893871</v>
+        <v>0.08974442662143316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P15">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q15">
-        <v>24065.16299712747</v>
+        <v>25218.75367998451</v>
       </c>
       <c r="R15">
-        <v>24065.16299712747</v>
+        <v>226968.7831198606</v>
       </c>
       <c r="S15">
-        <v>0.01916531421443173</v>
+        <v>0.01929288100798255</v>
       </c>
       <c r="T15">
-        <v>0.01916531421443173</v>
+        <v>0.02685348127734515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N16">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O16">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P16">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q16">
-        <v>305.4925177323933</v>
+        <v>312.2483832224436</v>
       </c>
       <c r="R16">
-        <v>305.4925177323933</v>
+        <v>2810.235449001992</v>
       </c>
       <c r="S16">
-        <v>0.0002432919358658837</v>
+        <v>0.0002388766304191619</v>
       </c>
       <c r="T16">
-        <v>0.0002432919358658837</v>
+        <v>0.0003324889175391767</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N17">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O17">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P17">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q17">
-        <v>156.0733883606371</v>
+        <v>174.3456348426393</v>
       </c>
       <c r="R17">
-        <v>156.0733883606371</v>
+        <v>1569.110713583754</v>
       </c>
       <c r="S17">
-        <v>0.0001242956687556899</v>
+        <v>0.0001333781054354738</v>
       </c>
       <c r="T17">
-        <v>0.0001242956687556899</v>
+        <v>0.0001856470506212797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N18">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O18">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P18">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q18">
-        <v>80896.8116741034</v>
+        <v>82239.17955293694</v>
       </c>
       <c r="R18">
-        <v>80896.8116741034</v>
+        <v>740152.6159764325</v>
       </c>
       <c r="S18">
-        <v>0.06442561036735818</v>
+        <v>0.06291471519340754</v>
       </c>
       <c r="T18">
-        <v>0.06442561036735818</v>
+        <v>0.08757007964837595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N19">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O19">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P19">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q19">
-        <v>18391.92353853662</v>
+        <v>18409.86847497019</v>
       </c>
       <c r="R19">
-        <v>18391.92353853662</v>
+        <v>110459.2108498211</v>
       </c>
       <c r="S19">
-        <v>0.01464718912005424</v>
+        <v>0.01408393953037045</v>
       </c>
       <c r="T19">
-        <v>0.01464718912005424</v>
+        <v>0.01306882078536569</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N20">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O20">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P20">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q20">
-        <v>120932.4708039039</v>
+        <v>125319.7762695397</v>
       </c>
       <c r="R20">
-        <v>120932.4708039039</v>
+        <v>751918.6576172385</v>
       </c>
       <c r="S20">
-        <v>0.09630970718798214</v>
+        <v>0.09587228465751486</v>
       </c>
       <c r="T20">
-        <v>0.09630970718798214</v>
+        <v>0.0889621617425157</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P21">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q21">
-        <v>23727.65900991619</v>
+        <v>24998.93228230441</v>
       </c>
       <c r="R21">
-        <v>23727.65900991619</v>
+        <v>224990.3905407398</v>
       </c>
       <c r="S21">
-        <v>0.01889652858583242</v>
+        <v>0.01912471298024149</v>
       </c>
       <c r="T21">
-        <v>0.01889652858583242</v>
+        <v>0.02661941063841237</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N22">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O22">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P22">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q22">
-        <v>301.2081111480621</v>
+        <v>309.5266438020778</v>
       </c>
       <c r="R22">
-        <v>301.2081111480621</v>
+        <v>2785.7397942187</v>
       </c>
       <c r="S22">
-        <v>0.0002398798667923898</v>
+        <v>0.0002367944420827284</v>
       </c>
       <c r="T22">
-        <v>0.0002398798667923898</v>
+        <v>0.0003295907497909183</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N23">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O23">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P23">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q23">
-        <v>153.8845234493303</v>
+        <v>172.8259363826417</v>
       </c>
       <c r="R23">
-        <v>153.8845234493303</v>
+        <v>1555.433427443775</v>
       </c>
       <c r="S23">
-        <v>0.000122552473257569</v>
+        <v>0.000132215503907706</v>
       </c>
       <c r="T23">
-        <v>0.000122552473257569</v>
+        <v>0.0001840288424155687</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N24">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O24">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P24">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q24">
-        <v>79762.2672500349</v>
+        <v>81522.33479435796</v>
       </c>
       <c r="R24">
-        <v>79762.2672500349</v>
+        <v>733701.0131492217</v>
       </c>
       <c r="S24">
-        <v>0.06352206774933812</v>
+        <v>0.06236631376152247</v>
       </c>
       <c r="T24">
-        <v>0.06352206774933812</v>
+        <v>0.08680676764860248</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N25">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O25">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P25">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q25">
-        <v>18133.9843952413</v>
+        <v>18249.39730059623</v>
       </c>
       <c r="R25">
-        <v>18133.9843952413</v>
+        <v>109496.3838035774</v>
       </c>
       <c r="S25">
-        <v>0.01444176833275078</v>
+        <v>0.01396117568122491</v>
       </c>
       <c r="T25">
-        <v>0.01444176833275078</v>
+        <v>0.01295490530454834</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N26">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O26">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P26">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q26">
-        <v>117878.4177305879</v>
+        <v>127237.3941968647</v>
       </c>
       <c r="R26">
-        <v>117878.4177305879</v>
+        <v>763424.3651811882</v>
       </c>
       <c r="S26">
-        <v>0.09387748236637428</v>
+        <v>0.09733930301060729</v>
       </c>
       <c r="T26">
-        <v>0.09387748236637428</v>
+        <v>0.09032344278920471</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P27">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q27">
-        <v>23128.4359109411</v>
+        <v>25381.46089937937</v>
       </c>
       <c r="R27">
-        <v>23128.4359109411</v>
+        <v>228433.1480944143</v>
       </c>
       <c r="S27">
-        <v>0.0184193118315651</v>
+        <v>0.01941735547895595</v>
       </c>
       <c r="T27">
-        <v>0.0184193118315651</v>
+        <v>0.02702673548828486</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N28">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O28">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P28">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q28">
-        <v>293.6013405971559</v>
+        <v>314.2629580439973</v>
       </c>
       <c r="R28">
-        <v>293.6013405971559</v>
+        <v>2828.366622395976</v>
       </c>
       <c r="S28">
-        <v>0.0002338218921265791</v>
+        <v>0.0002404178228510766</v>
       </c>
       <c r="T28">
-        <v>0.0002338218921265791</v>
+        <v>0.0003346340809338032</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N29">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O29">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P29">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q29">
-        <v>149.9982925747601</v>
+        <v>175.470483985418</v>
       </c>
       <c r="R29">
-        <v>149.9982925747601</v>
+        <v>1579.234355868762</v>
       </c>
       <c r="S29">
-        <v>0.0001194575083146822</v>
+        <v>0.0001342386388678132</v>
       </c>
       <c r="T29">
-        <v>0.0001194575083146822</v>
+        <v>0.0001868448146257483</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N30">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O30">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P30">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q30">
-        <v>77747.93482293494</v>
+        <v>82769.77311042081</v>
       </c>
       <c r="R30">
-        <v>77747.93482293494</v>
+        <v>744927.9579937874</v>
       </c>
       <c r="S30">
-        <v>0.06191786860461187</v>
+        <v>0.06332063050936794</v>
       </c>
       <c r="T30">
-        <v>0.06191786860461187</v>
+        <v>0.08813506728981843</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N31">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O31">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P31">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q31">
-        <v>17676.02508616909</v>
+        <v>18528.64589541681</v>
       </c>
       <c r="R31">
-        <v>17676.02508616909</v>
+        <v>111171.8753725009</v>
       </c>
       <c r="S31">
-        <v>0.01407705299478108</v>
+        <v>0.01417480677417602</v>
       </c>
       <c r="T31">
-        <v>0.01407705299478108</v>
+        <v>0.01315313865125786</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H32">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I32">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J32">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N32">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O32">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P32">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q32">
-        <v>45488.8915049872</v>
+        <v>46915.98011509981</v>
       </c>
       <c r="R32">
-        <v>45488.8915049872</v>
+        <v>187663.9204603992</v>
       </c>
       <c r="S32">
-        <v>0.03622700993395877</v>
+        <v>0.035891719044462</v>
       </c>
       <c r="T32">
-        <v>0.03622700993395877</v>
+        <v>0.02220318365039316</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H33">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I33">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J33">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P33">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q33">
-        <v>8925.186917908952</v>
+        <v>9358.853365112445</v>
       </c>
       <c r="R33">
-        <v>8925.186917908952</v>
+        <v>56153.12019067467</v>
       </c>
       <c r="S33">
-        <v>0.007107951511680113</v>
+        <v>0.007159721159716817</v>
       </c>
       <c r="T33">
-        <v>0.007107951511680113</v>
+        <v>0.006643674698244644</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H34">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I34">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J34">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N34">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O34">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P34">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q34">
-        <v>113.2997862141919</v>
+        <v>115.877527857042</v>
       </c>
       <c r="R34">
-        <v>113.2997862141919</v>
+        <v>695.2651671422522</v>
       </c>
       <c r="S34">
-        <v>9.023109477721468E-05</v>
+        <v>8.864876451921743E-05</v>
       </c>
       <c r="T34">
-        <v>9.023109477721468E-05</v>
+        <v>8.225928646224913E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H35">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I35">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J35">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N35">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O35">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P35">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q35">
-        <v>57.88384496694889</v>
+        <v>64.70086714216652</v>
       </c>
       <c r="R35">
-        <v>57.88384496694889</v>
+        <v>388.205202852999</v>
       </c>
       <c r="S35">
-        <v>4.609825733835447E-05</v>
+        <v>4.949753452240678E-05</v>
       </c>
       <c r="T35">
-        <v>4.609825733835447E-05</v>
+        <v>4.592993363794789E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H36">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I36">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J36">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N36">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O36">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P36">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q36">
-        <v>30002.67088739168</v>
+        <v>30519.52654242202</v>
       </c>
       <c r="R36">
-        <v>30002.67088739168</v>
+        <v>183117.1592545322</v>
       </c>
       <c r="S36">
-        <v>0.02389390069361593</v>
+        <v>0.02334808458319003</v>
       </c>
       <c r="T36">
-        <v>0.02389390069361593</v>
+        <v>0.02166524021501847</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H37">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I37">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J37">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N37">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O37">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P37">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q37">
-        <v>6821.119615143375</v>
+        <v>6832.029120653914</v>
       </c>
       <c r="R37">
-        <v>6821.119615143375</v>
+        <v>27328.11648261566</v>
       </c>
       <c r="S37">
-        <v>0.005432288189115977</v>
+        <v>0.005226647063548645</v>
       </c>
       <c r="T37">
-        <v>0.005432288189115977</v>
+        <v>0.003233286332259548</v>
       </c>
     </row>
   </sheetData>
